--- a/도서정보/샘플-도서정보(2021-06-10)-MYSQL 테이블명세.xlsx
+++ b/도서정보/샘플-도서정보(2021-06-10)-MYSQL 테이블명세.xlsx
@@ -6918,7 +6918,7 @@
   <dimension ref="B1:L30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8069,12 +8069,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
